--- a/AlternativeVersions/2_withAsymmetricSteadyState/steady_state_numbers.xlsx
+++ b/AlternativeVersions/2_withAsymmetricSteadyState/steady_state_numbers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="steady_state_numbers" sheetId="1" r:id="rId1"/>
@@ -27,14 +27,15 @@
   </definedNames>
   <calcPr calcId="171027"/>
   <pivotCaches>
-    <pivotCache cacheId="238" r:id="rId8"/>
-    <pivotCache cacheId="239" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId9"/>
   </pivotCaches>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="46">
   <si>
     <t>lambda</t>
   </si>
@@ -169,6 +170,9 @@
   </si>
   <si>
     <t>Count of Omega</t>
+  </si>
+  <si>
+    <t>Utilde:</t>
   </si>
 </sst>
 </file>
@@ -3688,15 +3692,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Theta = 5</a:t>
+              <a:t>Utilde diagonal</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>, lambda = 0.1</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3732,218 +3729,58 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Omega!$B$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average of Max pop ratio</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="4"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
+          <c:val>
             <c:numRef>
-              <c:f>Omega!$A$21:$A$25</c:f>
+              <c:f>Sheet2!$Y$20:$AE$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.4</c:v>
+                  <c:v>0.98740000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4500000000000002</c:v>
+                  <c:v>0.98750000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5</c:v>
+                  <c:v>1.0134000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5499999999999998</c:v>
+                  <c:v>1.1874</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6</c:v>
+                  <c:v>1.0134000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98750000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98740000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Omega!$B$21:$B$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5.2457000000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.2504999999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.2058</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.802</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15.836</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2B4F-4223-B910-B39E5CE9D4DF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Omega!$C$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average of max capital ratio</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="4"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Omega!$A$21:$A$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.4500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.5499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Omega!$C$21:$C$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>9.2357999999999993</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11.714</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16.879000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27.475999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>41.338000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2B4F-4223-B910-B39E5CE9D4DF}"/>
+              <c16:uniqueId val="{00000000-36F3-413D-8CD9-DBE83B1CFE6E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3955,86 +3792,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="480081816"/>
-        <c:axId val="480078536"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="480081816"/>
+        <c:smooth val="0"/>
+        <c:axId val="435280064"/>
+        <c:axId val="435280392"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="435280064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Omega</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4043,8 +3811,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -4071,14 +3839,18 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480078536"/>
+        <c:crossAx val="435280392"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="480078536"/>
+        <c:axId val="435280392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.9"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4102,14 +3874,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -4133,9 +3899,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480081816"/>
+        <c:crossAx val="435280064"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4145,37 +3911,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -4248,11 +3983,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Theta = 1.4, lambda =</a:t>
+              <a:t>Theta = 5</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> 0.05</a:t>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>, lambda = 0.1</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -4289,17 +4026,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="6.5355511542652261E-2"/>
-          <c:y val="0.17032679738562093"/>
-          <c:w val="0.89843453617377578"/>
-          <c:h val="0.47824164136345704"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -4308,7 +4035,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Omega!$B$38</c:f>
+              <c:f>Omega!$B$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4356,78 +4083,48 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Omega!$A$39:$A$48</c:f>
+              <c:f>Omega!$A$21:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.8</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5</c:v>
+                  <c:v>2.4500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>2.5499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.5</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Omega!$B$39:$B$48</c:f>
+              <c:f>Omega!$B$21:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6.780090935441291</c:v>
+                  <c:v>5.2457000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1438622873848265</c:v>
+                  <c:v>6.2504999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1770906734705102</c:v>
+                  <c:v>8.2058</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9602111255746666</c:v>
+                  <c:v>11.802</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7762641430375088</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.6192154843741933</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.4847573886408179</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.3697621483217113</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.271980788519127</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.189876442066468</c:v>
+                  <c:v>15.836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4435,7 +4132,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4882-45C5-8FC5-B21A60C66E17}"/>
+              <c16:uniqueId val="{00000000-2B4F-4223-B910-B39E5CE9D4DF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4444,7 +4141,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Omega!$C$38</c:f>
+              <c:f>Omega!$C$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4492,78 +4189,48 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Omega!$A$39:$A$48</c:f>
+              <c:f>Omega!$A$21:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.8</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5</c:v>
+                  <c:v>2.4500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>2.5499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.5</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Omega!$C$39:$C$48</c:f>
+              <c:f>Omega!$C$21:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>9.8539433763248763</c:v>
+                  <c:v>9.2357999999999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9475415245939849</c:v>
+                  <c:v>11.714</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5559986191149151</c:v>
+                  <c:v>16.879000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2581469155833092</c:v>
+                  <c:v>27.475999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0103320987436586</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.8025387733197327</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.6276237080422815</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.480378170579399</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.3569985332680381</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.2547795317407329</c:v>
+                  <c:v>41.338000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4571,7 +4238,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4882-45C5-8FC5-B21A60C66E17}"/>
+              <c16:uniqueId val="{00000001-2B4F-4223-B910-B39E5CE9D4DF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4876,11 +4543,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Theta = 4, lambda =</a:t>
+              <a:t>Theta = 1.4, lambda =</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> 0.08</a:t>
+              <a:t> 0.05</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -4936,7 +4603,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Omega!$B$20</c:f>
+              <c:f>Omega!$B$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4984,54 +4651,78 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Omega!$A$77:$A$82</c:f>
+              <c:f>Omega!$A$39:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.6</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2000000000000002</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2999999999999998</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4</c:v>
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Omega!$B$77:$B$82</c:f>
+              <c:f>Omega!$B$39:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.0583723349889698</c:v>
+                  <c:v>6.780090935441291</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4685463099355198</c:v>
+                  <c:v>3.1438622873848265</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0633924639549841</c:v>
+                  <c:v>2.1770906734705102</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0685396507040146</c:v>
+                  <c:v>1.9602111255746666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0256979314741699</c:v>
+                  <c:v>1.7762641430375088</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.0006775634794884</c:v>
+                  <c:v>1.6192154843741933</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4847573886408179</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3697621483217113</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.271980788519127</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.189876442066468</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5039,7 +4730,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5CCC-4349-BED6-CADBF48391AC}"/>
+              <c16:uniqueId val="{00000001-4882-45C5-8FC5-B21A60C66E17}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5048,7 +4739,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Omega!$C$20</c:f>
+              <c:f>Omega!$C$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5096,54 +4787,78 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Omega!$A$77:$A$82</c:f>
+              <c:f>Omega!$A$39:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.6</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2000000000000002</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2999999999999998</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4</c:v>
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Omega!$C$77:$C$82</c:f>
+              <c:f>Omega!$C$39:$C$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.5312038569177471</c:v>
+                  <c:v>9.8539433763248763</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1956774682934901</c:v>
+                  <c:v>3.9475415245939849</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2256306684542579</c:v>
+                  <c:v>2.5559986191149151</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.1185526746608048</c:v>
+                  <c:v>2.2581469155833092</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.0661721368232477</c:v>
+                  <c:v>2.0103320987436586</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.751004854161234</c:v>
+                  <c:v>1.8025387733197327</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6276237080422815</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.480378170579399</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3569985332680381</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2547795317407329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5151,7 +4866,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5CCC-4349-BED6-CADBF48391AC}"/>
+              <c16:uniqueId val="{00000003-4882-45C5-8FC5-B21A60C66E17}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5170,7 +4885,6 @@
         <c:axId val="480081816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="1.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -5457,11 +5171,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Theta = 6, lambda =</a:t>
+              <a:t>Theta = 4, lambda =</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> 0.05</a:t>
+              <a:t> 0.08</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -5517,7 +5231,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Omega!$B$38</c:f>
+              <c:f>Omega!$B$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5565,48 +5279,54 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Omega!$A$51:$A$55</c:f>
+              <c:f>Omega!$A$77:$A$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1.8</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Omega!$B$51:$B$55</c:f>
+              <c:f>Omega!$B$77:$B$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.9530397280594263</c:v>
+                  <c:v>2.0583723349889698</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0281702482247477</c:v>
+                  <c:v>2.4685463099355198</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3544849257433222</c:v>
+                  <c:v>3.0633924639549841</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.4392345646559441</c:v>
+                  <c:v>4.0685396507040146</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.064530771149691</c:v>
+                  <c:v>5.0256979314741699</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0006775634794884</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5614,7 +5334,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A6FB-4D7F-B6F0-E8B69EECFBED}"/>
+              <c16:uniqueId val="{00000001-5CCC-4349-BED6-CADBF48391AC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5623,7 +5343,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Omega!$C$38</c:f>
+              <c:f>Omega!$C$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5671,48 +5391,54 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Omega!$A$51:$A$55</c:f>
+              <c:f>Omega!$A$77:$A$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1.8</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Omega!$C$51:$C$55</c:f>
+              <c:f>Omega!$C$77:$C$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.2474406500196227</c:v>
+                  <c:v>2.5312038569177471</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7667241423605637</c:v>
+                  <c:v>3.1956774682934901</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.7820078641190689</c:v>
+                  <c:v>4.2256306684542579</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.5205930816788955</c:v>
+                  <c:v>6.1185526746608048</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1028597484626128</c:v>
+                  <c:v>8.0661721368232477</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.751004854161234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5720,7 +5446,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-A6FB-4D7F-B6F0-E8B69EECFBED}"/>
+              <c16:uniqueId val="{00000003-5CCC-4349-BED6-CADBF48391AC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5739,6 +5465,7 @@
         <c:axId val="480081816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="1.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -6025,7 +5752,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Theta = 8, lambda =</a:t>
+              <a:t>Theta = 6, lambda =</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -6133,36 +5860,48 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Omega!$A$59:$A$61</c:f>
+              <c:f>Omega!$A$51:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.3</c:v>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Omega!$B$59:$B$61</c:f>
+              <c:f>Omega!$B$51:$B$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.1257493817727982</c:v>
+                  <c:v>1.9530397280594263</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.966937087194867</c:v>
+                  <c:v>3.0281702482247477</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5042234516820008</c:v>
+                  <c:v>4.3544849257433222</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4392345646559441</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.064530771149691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6170,7 +5909,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-ECCE-4192-8F0A-329D15DFD9E8}"/>
+              <c16:uniqueId val="{00000001-A6FB-4D7F-B6F0-E8B69EECFBED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6227,36 +5966,48 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Omega!$A$59:$A$61</c:f>
+              <c:f>Omega!$A$51:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.3</c:v>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Omega!$C$59:$C$61</c:f>
+              <c:f>Omega!$C$51:$C$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5.4240375134997425</c:v>
+                  <c:v>2.2474406500196227</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.7521054629269619</c:v>
+                  <c:v>3.7667241423605637</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.6232120250440065</c:v>
+                  <c:v>5.7820078641190689</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5205930816788955</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1028597484626128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6264,7 +6015,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-ECCE-4192-8F0A-329D15DFD9E8}"/>
+              <c16:uniqueId val="{00000003-A6FB-4D7F-B6F0-E8B69EECFBED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6569,11 +6320,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Theta = 4, lambda =</a:t>
+              <a:t>Theta = 8, lambda =</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> 0.1</a:t>
+              <a:t> 0.05</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -6629,7 +6380,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Omega!$B$20</c:f>
+              <c:f>Omega!$B$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6677,54 +6428,36 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Omega!$A$29:$A$34</c:f>
+              <c:f>Omega!$A$59:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.4</c:v>
+                  <c:v>3.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Omega!$B$29:$B$34</c:f>
+              <c:f>Omega!$B$59:$B$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.1034166824054754</c:v>
+                  <c:v>4.1257493817727982</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5796999999999999</c:v>
+                  <c:v>4.966937087194867</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3685999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.2934000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.5725999999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14.347</c:v>
+                  <c:v>5.5042234516820008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6732,7 +6465,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2AFE-44E5-9D5B-170EBF67DD5B}"/>
+              <c16:uniqueId val="{00000001-ECCE-4192-8F0A-329D15DFD9E8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6741,7 +6474,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Omega!$C$20</c:f>
+              <c:f>Omega!$C$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6789,54 +6522,36 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Omega!$A$29:$A$34</c:f>
+              <c:f>Omega!$A$59:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.4</c:v>
+                  <c:v>3.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Omega!$C$29:$C$34</c:f>
+              <c:f>Omega!$C$59:$C$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.6699062885346549</c:v>
+                  <c:v>5.4240375134997425</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5131999999999999</c:v>
+                  <c:v>6.7521054629269619</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0552999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.3864999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18.042000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>37.026000000000003</c:v>
+                  <c:v>7.6232120250440065</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6844,7 +6559,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-2AFE-44E5-9D5B-170EBF67DD5B}"/>
+              <c16:uniqueId val="{00000003-ECCE-4192-8F0A-329D15DFD9E8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6863,7 +6578,6 @@
         <c:axId val="480081816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="1.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -7154,7 +6868,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> 0.05</a:t>
+              <a:t> 0.1</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -7258,10 +6972,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Omega!$A$67:$A$73</c:f>
+              <c:f>Omega!$A$29:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1.6</c:v>
                 </c:pt>
@@ -7275,43 +6989,37 @@
                   <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Omega!$B$67:$B$73</c:f>
+              <c:f>Omega!$B$29:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.9827156673434341</c:v>
+                  <c:v>2.1034166824054754</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3171475994713786</c:v>
+                  <c:v>2.5796999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7486506628867806</c:v>
+                  <c:v>3.3685999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3200711858579002</c:v>
+                  <c:v>5.2934000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1145176374696621</c:v>
+                  <c:v>8.5725999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3611977550047882</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0846582808912502</c:v>
+                  <c:v>14.347</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7319,7 +7027,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-17C1-490B-97E2-D65BD84B323E}"/>
+              <c16:uniqueId val="{00000001-2AFE-44E5-9D5B-170EBF67DD5B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7376,10 +7084,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Omega!$A$67:$A$73</c:f>
+              <c:f>Omega!$A$29:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1.6</c:v>
                 </c:pt>
@@ -7393,43 +7101,37 @@
                   <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Omega!$C$67:$C$73</c:f>
+              <c:f>Omega!$C$29:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.2873147363476756</c:v>
+                  <c:v>2.6699062885346549</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7481241142638528</c:v>
+                  <c:v>3.5131999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3608499154463711</c:v>
+                  <c:v>5.0552999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.199718551129906</c:v>
+                  <c:v>9.3864999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.4108625017145879</c:v>
+                  <c:v>18.042000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.4010938310013801</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.1267057167181966</c:v>
+                  <c:v>37.026000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7437,7 +7139,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-17C1-490B-97E2-D65BD84B323E}"/>
+              <c16:uniqueId val="{00000003-2AFE-44E5-9D5B-170EBF67DD5B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8962,8 +8664,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>omega=2.5, lambda 0.1</a:t>
+              <a:t>Theta = 4, lambda =</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 0.05</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -8998,20 +8705,148 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.5355511542652261E-2"/>
+          <c:y val="0.17032679738562093"/>
+          <c:w val="0.89843453617377578"/>
+          <c:h val="0.47824164136345704"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>thetaN!$B$31</c:f>
+              <c:f>Omega!$B$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Average of Max pop ratio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Omega!$A$67:$A$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Omega!$B$67:$B$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.9827156673434341</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3171475994713786</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7486506628867806</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3200711858579002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1145176374696621</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3611977550047882</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0846582808912502</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-17C1-490B-97E2-D65BD84B323E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Omega!$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of max capital ratio</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9055,36 +8890,60 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>thetaN!$A$32:$A$34</c:f>
+              <c:f>Omega!$A$67:$A$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4.5</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>thetaN!$B$32:$B$34</c:f>
+              <c:f>Omega!$C$67:$C$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>14.843999999999999</c:v>
+                  <c:v>2.2873147363476756</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.826000000000001</c:v>
+                  <c:v>2.7481241142638528</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.2058</c:v>
+                  <c:v>3.3608499154463711</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.199718551129906</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4108625017145879</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4010938310013801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1267057167181966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9092,101 +8951,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5C6B-447A-85F9-BDA61F4107C9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>thetaN!$C$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average of max capital ratio</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="4"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>thetaN!$A$32:$A$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>thetaN!$C$32:$C$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>38.268999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24.515000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16.879000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5C6B-447A-85F9-BDA61F4107C9}"/>
+              <c16:uniqueId val="{00000003-17C1-490B-97E2-D65BD84B323E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9198,13 +8963,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="395711904"/>
-        <c:axId val="395713872"/>
+        <c:axId val="480081816"/>
+        <c:axId val="480078536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="395711904"/>
+        <c:axId val="480081816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="1.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -9243,7 +9009,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>thetaN</a:t>
+                  <a:t>Omega</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -9314,12 +9080,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395713872"/>
+        <c:crossAx val="480078536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="395713872"/>
+        <c:axId val="480078536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9376,7 +9142,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395711904"/>
+        <c:crossAx val="480081816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9491,7 +9257,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>omega=0.5, lambda 0.05</a:t>
+              <a:t>omega=2.5, lambda 0.1</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -9584,120 +9350,36 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>thetaN!$A$39:$A$55</c:f>
+              <c:f>thetaN!$A$32:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>thetaN!$B$39:$B$55</c:f>
+              <c:f>thetaN!$B$32:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0846582808912502</c:v>
+                  <c:v>14.843999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0726061853867999</c:v>
+                  <c:v>10.826000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1045258461748957</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1431255728593879</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.189876442066468</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.064530771149691</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.1201692451175882</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0682048272584825</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0614180868192236</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.0587476152614466</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.1797975362510953</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.2464180472027027</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.2904267248735988</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.3535815117150816</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.4505734649868347</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.5218368575778549</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.623723682196339</c:v>
+                  <c:v>8.2058</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9705,7 +9387,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5437-4366-AB59-37905F6B2000}"/>
+              <c16:uniqueId val="{00000001-5C6B-447A-85F9-BDA61F4107C9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9762,120 +9444,36 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>thetaN!$A$39:$A$55</c:f>
+              <c:f>thetaN!$A$32:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>thetaN!$C$39:$C$55</c:f>
+              <c:f>thetaN!$C$32:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.1267057167181966</c:v>
+                  <c:v>38.268999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1123768333573418</c:v>
+                  <c:v>24.515000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1505498451773124</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1973925443942817</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2547795317407329</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1028597484626128</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.1694645344278811</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1071796480463358</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0992152325789892</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.0961013903855386</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.2423547650528577</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.3249812725351684</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.3801933367463231</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.4602987612246063</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.5853900799174767</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.6789480986338539</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.8150823576235178</c:v>
+                  <c:v>16.879000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9883,7 +9481,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5437-4366-AB59-37905F6B2000}"/>
+              <c16:uniqueId val="{00000002-5C6B-447A-85F9-BDA61F4107C9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10188,7 +9786,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>omega=1.8,  lambda 0.05</a:t>
+              <a:t>omega=0.5, lambda 0.05</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -10281,10 +9879,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>thetaN!$A$59:$A$70</c:f>
+              <c:f>thetaN!$A$39:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -10295,76 +9893,106 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2000000000000002</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.8</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>thetaN!$B$59:$B$70</c:f>
+              <c:f>thetaN!$B$39:$B$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>2.3171475994713786</c:v>
+                  <c:v>1.0846582808912502</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0954920407780979</c:v>
+                  <c:v>1.0726061853867999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7087067824898199</c:v>
+                  <c:v>1.1045258461748957</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.826348671657041</c:v>
+                  <c:v>1.1431255728593879</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9659234736660141</c:v>
+                  <c:v>1.189876442066468</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.1348638979611234</c:v>
+                  <c:v>1.064530771149691</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3451591063802399</c:v>
+                  <c:v>1.1201692451175882</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.6185927733147567</c:v>
+                  <c:v>1.0682048272584825</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0037709495480325</c:v>
+                  <c:v>1.0614180868192236</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.6648246532524018</c:v>
+                  <c:v>1.0587476152614466</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.780090935441291</c:v>
+                  <c:v>1.1797975362510953</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.9530397280594263</c:v>
+                  <c:v>1.2464180472027027</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2904267248735988</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3535815117150816</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4505734649868347</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5218368575778549</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.623723682196339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10372,7 +10000,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A8A4-44F0-A8B0-796856DA4E57}"/>
+              <c16:uniqueId val="{00000001-5437-4366-AB59-37905F6B2000}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10429,10 +10057,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>thetaN!$A$59:$A$70</c:f>
+              <c:f>thetaN!$A$39:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -10443,76 +10071,106 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2000000000000002</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.8</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>thetaN!$C$59:$C$70</c:f>
+              <c:f>thetaN!$C$39:$C$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>2.7481241142638528</c:v>
+                  <c:v>1.1267057167181966</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4413147239491635</c:v>
+                  <c:v>1.1123768333573418</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3041598346701555</c:v>
+                  <c:v>1.1505498451773124</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4744820793877218</c:v>
+                  <c:v>1.1973925443942817</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6784082953198909</c:v>
+                  <c:v>1.2547795317407329</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.9278361064156995</c:v>
+                  <c:v>1.1028597484626128</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.2421455270311847</c:v>
+                  <c:v>1.1694645344278811</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.6568848903718703</c:v>
+                  <c:v>1.1071796480463358</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.252102450943835</c:v>
+                  <c:v>1.0992152325789892</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.3011623287297489</c:v>
+                  <c:v>1.0961013903855386</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.8539433763248763</c:v>
+                  <c:v>1.2423547650528577</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.2474406500196227</c:v>
+                  <c:v>1.3249812725351684</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3801933367463231</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4602987612246063</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5853900799174767</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6789480986338539</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.8150823576235178</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10520,7 +10178,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-A8A4-44F0-A8B0-796856DA4E57}"/>
+              <c16:uniqueId val="{00000003-5437-4366-AB59-37905F6B2000}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10825,6 +10483,643 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>omega=1.8,  lambda 0.05</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>thetaN!$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of Max pop ratio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>thetaN!$A$59:$A$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>thetaN!$B$59:$B$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.3171475994713786</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0954920407780979</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7087067824898199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.826348671657041</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9659234736660141</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1348638979611234</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3451591063802399</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6185927733147567</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0037709495480325</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.6648246532524018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.780090935441291</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9530397280594263</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A8A4-44F0-A8B0-796856DA4E57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>thetaN!$C$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of max capital ratio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>thetaN!$A$59:$A$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>thetaN!$C$59:$C$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.7481241142638528</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4413147239491635</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3041598346701555</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4744820793877218</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6784082953198909</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9278361064156995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2421455270311847</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.6568848903718703</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.252102450943835</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.3011623287297489</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.8539433763248763</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2474406500196227</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A8A4-44F0-A8B0-796856DA4E57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="395711904"/>
+        <c:axId val="395713872"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="395711904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>thetaN</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="395713872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="395713872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="395711904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>omega=2.4,  lambda 0.05</a:t>
             </a:r>
           </a:p>
@@ -11331,7 +11626,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -18115,6 +18410,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -19428,7 +19763,7 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -19455,8 +19790,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -19536,6 +19871,522 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -19943,7 +20794,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -20459,7 +21310,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -20975,7 +21826,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -21491,7 +22342,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -22007,7 +22858,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -22523,7 +23374,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -23039,7 +23890,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -23555,7 +24406,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -24071,7 +24922,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -24587,7 +25438,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -25103,7 +25954,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -25619,7 +26470,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -30204,6 +31055,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB893CBF-E14F-483F-B4C4-AAA25ECF8A49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -34304,7 +35191,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="238" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A6:I11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="15">
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
@@ -34481,7 +35368,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="238" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A6:I11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="15">
     <pivotField axis="axisRow" subtotalTop="0" showAll="0">
@@ -34658,7 +35545,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="238" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:I6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="15">
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
@@ -34810,7 +35697,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="239" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="15">
     <pivotField axis="axisRow" subtotalTop="0" showAll="0">
@@ -35307,11 +36194,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P194"/>
+  <dimension ref="A1:P221"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O194" sqref="A194:O194"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43093,7 +43980,7 @@
         <v>1.2975360103174969</v>
       </c>
       <c r="O162">
-        <f t="shared" ref="O162:O194" si="4">I162/H162</f>
+        <f t="shared" ref="O162:O193" si="4">I162/H162</f>
         <v>2.1726646246621781</v>
       </c>
     </row>
@@ -44631,6 +45518,1286 @@
       <c r="O194">
         <f>I194/H194</f>
         <v>1.6514519626777719</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>1.5</v>
+      </c>
+      <c r="B195">
+        <v>1.7</v>
+      </c>
+      <c r="C195">
+        <v>0.05</v>
+      </c>
+      <c r="D195">
+        <v>4</v>
+      </c>
+      <c r="E195">
+        <v>2</v>
+      </c>
+      <c r="F195">
+        <v>8</v>
+      </c>
+      <c r="G195">
+        <v>0.2</v>
+      </c>
+      <c r="H195">
+        <v>4.0974358358833909</v>
+      </c>
+      <c r="I195">
+        <v>5.4030498251638974</v>
+      </c>
+      <c r="J195">
+        <v>1.0588536591687185</v>
+      </c>
+      <c r="K195">
+        <v>0.94830363041847909</v>
+      </c>
+      <c r="L195">
+        <v>1.0447632860912039</v>
+      </c>
+      <c r="M195">
+        <v>2.859357120723105</v>
+      </c>
+      <c r="N195">
+        <v>1.1898646279713392</v>
+      </c>
+      <c r="O195">
+        <f t="shared" ref="O195:O217" si="5">I195/H195</f>
+        <v>1.3186417168138573</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>2</v>
+      </c>
+      <c r="B196">
+        <v>1.7</v>
+      </c>
+      <c r="C196">
+        <v>0.05</v>
+      </c>
+      <c r="D196">
+        <v>4</v>
+      </c>
+      <c r="E196">
+        <v>2</v>
+      </c>
+      <c r="F196">
+        <v>8</v>
+      </c>
+      <c r="G196">
+        <v>0.2</v>
+      </c>
+      <c r="H196">
+        <v>3.17072943810749</v>
+      </c>
+      <c r="I196">
+        <v>3.9828343246797733</v>
+      </c>
+      <c r="J196">
+        <v>1.0516043234774386</v>
+      </c>
+      <c r="K196">
+        <v>0.94858331030925669</v>
+      </c>
+      <c r="L196">
+        <v>1.0231216342495728</v>
+      </c>
+      <c r="M196">
+        <v>2.1085206633993243</v>
+      </c>
+      <c r="N196">
+        <v>1.1918371155064047</v>
+      </c>
+      <c r="O196">
+        <f t="shared" si="5"/>
+        <v>1.2561255706059244</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>2.5369000000000002</v>
+      </c>
+      <c r="B197">
+        <v>1.7</v>
+      </c>
+      <c r="C197">
+        <v>0.05</v>
+      </c>
+      <c r="D197">
+        <v>4</v>
+      </c>
+      <c r="E197">
+        <v>2</v>
+      </c>
+      <c r="F197">
+        <v>8</v>
+      </c>
+      <c r="G197">
+        <v>0.2</v>
+      </c>
+      <c r="H197">
+        <v>2.7099963349813088</v>
+      </c>
+      <c r="I197">
+        <v>3.3067520115773732</v>
+      </c>
+      <c r="J197">
+        <v>1.0475682253650718</v>
+      </c>
+      <c r="K197">
+        <v>0.94742351496106958</v>
+      </c>
+      <c r="L197">
+        <v>1.0095577047719333</v>
+      </c>
+      <c r="M197">
+        <v>1.7734987677718341</v>
+      </c>
+      <c r="N197">
+        <v>1.1891017117748341</v>
+      </c>
+      <c r="O197">
+        <f t="shared" si="5"/>
+        <v>1.2202053445213166</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>2.5369000000000002</v>
+      </c>
+      <c r="B198">
+        <v>2</v>
+      </c>
+      <c r="C198">
+        <v>0.05</v>
+      </c>
+      <c r="D198">
+        <v>4</v>
+      </c>
+      <c r="E198">
+        <v>2</v>
+      </c>
+      <c r="F198">
+        <v>8</v>
+      </c>
+      <c r="G198">
+        <v>0.2</v>
+      </c>
+      <c r="H198">
+        <v>3.8396155105108414</v>
+      </c>
+      <c r="I198">
+        <v>4.9915960872287988</v>
+      </c>
+      <c r="J198">
+        <v>1.0564641060594249</v>
+      </c>
+      <c r="K198">
+        <v>0.95039833998786061</v>
+      </c>
+      <c r="L198">
+        <v>1.039070939044592</v>
+      </c>
+      <c r="M198">
+        <v>2.8847692377941527</v>
+      </c>
+      <c r="N198">
+        <v>1.1987614481101627</v>
+      </c>
+      <c r="O198">
+        <f t="shared" si="5"/>
+        <v>1.3000249825964194</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>2.5369000000000002</v>
+      </c>
+      <c r="B199">
+        <v>2.15</v>
+      </c>
+      <c r="C199">
+        <v>0.05</v>
+      </c>
+      <c r="D199">
+        <v>4</v>
+      </c>
+      <c r="E199">
+        <v>2</v>
+      </c>
+      <c r="F199">
+        <v>8</v>
+      </c>
+      <c r="G199">
+        <v>0.2</v>
+      </c>
+      <c r="H199">
+        <v>4.8323020566647719</v>
+      </c>
+      <c r="I199">
+        <v>6.5549801927157123</v>
+      </c>
+      <c r="J199">
+        <v>1.0627718444626157</v>
+      </c>
+      <c r="K199">
+        <v>0.95101751143050339</v>
+      </c>
+      <c r="L199">
+        <v>1.0584878648527327</v>
+      </c>
+      <c r="M199">
+        <v>4.7138319082313638</v>
+      </c>
+      <c r="N199">
+        <v>1.1999847489220161</v>
+      </c>
+      <c r="O199">
+        <f t="shared" si="5"/>
+        <v>1.3564922299662541</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>2.5369000000000002</v>
+      </c>
+      <c r="B200">
+        <v>2.25</v>
+      </c>
+      <c r="C200">
+        <v>0.05</v>
+      </c>
+      <c r="D200">
+        <v>4</v>
+      </c>
+      <c r="E200">
+        <v>2</v>
+      </c>
+      <c r="F200">
+        <v>8</v>
+      </c>
+      <c r="G200">
+        <v>0.2</v>
+      </c>
+      <c r="H200">
+        <v>6.2017595340876985</v>
+      </c>
+      <c r="I200">
+        <v>8.8187691206967997</v>
+      </c>
+      <c r="J200">
+        <v>1.0709257399949965</v>
+      </c>
+      <c r="K200">
+        <v>0.94973990089374682</v>
+      </c>
+      <c r="L200">
+        <v>1.0764283791543932</v>
+      </c>
+      <c r="M200">
+        <v>9.0363285408168501</v>
+      </c>
+      <c r="N200">
+        <v>1.1973817154907336</v>
+      </c>
+      <c r="O200">
+        <f t="shared" si="5"/>
+        <v>1.4219785646677887</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>2.5369000000000002</v>
+      </c>
+      <c r="B201">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="C201">
+        <v>0.05</v>
+      </c>
+      <c r="D201">
+        <v>4</v>
+      </c>
+      <c r="E201">
+        <v>2</v>
+      </c>
+      <c r="F201">
+        <v>8</v>
+      </c>
+      <c r="G201">
+        <v>0.2</v>
+      </c>
+      <c r="H201">
+        <v>7.7299665621126286</v>
+      </c>
+      <c r="I201">
+        <v>11.468623101480283</v>
+      </c>
+      <c r="J201">
+        <v>1.0801308005792281</v>
+      </c>
+      <c r="K201">
+        <v>0.94621250984730987</v>
+      </c>
+      <c r="L201">
+        <v>1.086117021805578</v>
+      </c>
+      <c r="M201">
+        <v>12.995164017047276</v>
+      </c>
+      <c r="N201">
+        <v>1.194533659734381</v>
+      </c>
+      <c r="O201">
+        <f t="shared" si="5"/>
+        <v>1.4836575306408397</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>2.5369000000000002</v>
+      </c>
+      <c r="B202">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C202">
+        <v>0.05</v>
+      </c>
+      <c r="D202">
+        <v>4</v>
+      </c>
+      <c r="E202">
+        <v>2</v>
+      </c>
+      <c r="F202">
+        <v>8</v>
+      </c>
+      <c r="G202">
+        <v>0.2</v>
+      </c>
+      <c r="H202">
+        <v>10.985815956079794</v>
+      </c>
+      <c r="I202">
+        <v>17.466939773106368</v>
+      </c>
+      <c r="J202">
+        <v>1.0974910530306712</v>
+      </c>
+      <c r="K202">
+        <v>0.93658956114163583</v>
+      </c>
+      <c r="L202">
+        <v>1.0943549163654462</v>
+      </c>
+      <c r="M202">
+        <v>18.730280999942249</v>
+      </c>
+      <c r="N202">
+        <v>1.1890334556617566</v>
+      </c>
+      <c r="O202">
+        <f t="shared" si="5"/>
+        <v>1.589953795233551</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>2.5369000000000002</v>
+      </c>
+      <c r="B203">
+        <v>2.31908</v>
+      </c>
+      <c r="C203">
+        <v>0.05</v>
+      </c>
+      <c r="D203">
+        <v>4</v>
+      </c>
+      <c r="E203">
+        <v>2</v>
+      </c>
+      <c r="F203">
+        <v>8</v>
+      </c>
+      <c r="G203">
+        <v>0.2</v>
+      </c>
+      <c r="H203">
+        <v>12.800886313253566</v>
+      </c>
+      <c r="I203">
+        <v>20.997174381817441</v>
+      </c>
+      <c r="J203">
+        <v>1.1052673705354297</v>
+      </c>
+      <c r="K203">
+        <v>0.9314532564846405</v>
+      </c>
+      <c r="L203">
+        <v>1.0988818564344243</v>
+      </c>
+      <c r="M203">
+        <v>29.887426749751544</v>
+      </c>
+      <c r="N203">
+        <v>1.184923563159251</v>
+      </c>
+      <c r="O203">
+        <f t="shared" si="5"/>
+        <v>1.6402906695669768</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>4</v>
+      </c>
+      <c r="B204">
+        <v>2.31908</v>
+      </c>
+      <c r="C204">
+        <v>0.05</v>
+      </c>
+      <c r="D204">
+        <v>4</v>
+      </c>
+      <c r="E204">
+        <v>2</v>
+      </c>
+      <c r="F204">
+        <v>8</v>
+      </c>
+      <c r="G204">
+        <v>0.2</v>
+      </c>
+      <c r="H204">
+        <v>3.757585481757824</v>
+      </c>
+      <c r="I204">
+        <v>4.8607128311948902</v>
+      </c>
+      <c r="J204">
+        <v>1.0558414480629035</v>
+      </c>
+      <c r="K204">
+        <v>0.9508212100014326</v>
+      </c>
+      <c r="L204">
+        <v>1.036145520187304</v>
+      </c>
+      <c r="M204">
+        <v>2.9270184785573248</v>
+      </c>
+      <c r="N204">
+        <v>1.2041388170567517</v>
+      </c>
+      <c r="O204">
+        <f t="shared" si="5"/>
+        <v>1.2935734542281165</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>4</v>
+      </c>
+      <c r="B205">
+        <v>2.31908</v>
+      </c>
+      <c r="C205">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D205">
+        <v>4</v>
+      </c>
+      <c r="E205">
+        <v>2</v>
+      </c>
+      <c r="F205">
+        <v>8</v>
+      </c>
+      <c r="G205">
+        <v>0.2</v>
+      </c>
+      <c r="H205">
+        <v>4.4845311907377656</v>
+      </c>
+      <c r="I205">
+        <v>6.6497421725186854</v>
+      </c>
+      <c r="J205">
+        <v>1.0883714548999812</v>
+      </c>
+      <c r="K205">
+        <v>0.95556319609912777</v>
+      </c>
+      <c r="L205">
+        <v>1.0503827267280355</v>
+      </c>
+      <c r="M205">
+        <v>4.0761020748398371</v>
+      </c>
+      <c r="N205">
+        <v>1.2656524300853207</v>
+      </c>
+      <c r="O205">
+        <f t="shared" si="5"/>
+        <v>1.4828176881126149</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>4</v>
+      </c>
+      <c r="B206">
+        <v>2.31908</v>
+      </c>
+      <c r="C206">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="D206">
+        <v>4</v>
+      </c>
+      <c r="E206">
+        <v>2</v>
+      </c>
+      <c r="F206">
+        <v>8</v>
+      </c>
+      <c r="G206">
+        <v>0.2</v>
+      </c>
+      <c r="H206">
+        <v>6.0424401393915952</v>
+      </c>
+      <c r="I206">
+        <v>10.514188744868276</v>
+      </c>
+      <c r="J206">
+        <v>1.1275812986082185</v>
+      </c>
+      <c r="K206">
+        <v>0.9537877542964629</v>
+      </c>
+      <c r="L206">
+        <v>1.0730573702459856</v>
+      </c>
+      <c r="M206">
+        <v>5.4883435813355845</v>
+      </c>
+      <c r="N206">
+        <v>1.2931865195029943</v>
+      </c>
+      <c r="O206">
+        <f t="shared" si="5"/>
+        <v>1.7400567489820322</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>4</v>
+      </c>
+      <c r="B207">
+        <v>2.31908</v>
+      </c>
+      <c r="C207">
+        <v>0.1</v>
+      </c>
+      <c r="D207">
+        <v>4</v>
+      </c>
+      <c r="E207">
+        <v>2</v>
+      </c>
+      <c r="F207">
+        <v>8</v>
+      </c>
+      <c r="G207">
+        <v>0.2</v>
+      </c>
+      <c r="H207">
+        <v>9.5837675040473194</v>
+      </c>
+      <c r="I207">
+        <v>21.003559113677689</v>
+      </c>
+      <c r="J207">
+        <v>1.1921023668720252</v>
+      </c>
+      <c r="K207">
+        <v>0.94056831163594523</v>
+      </c>
+      <c r="L207">
+        <v>1.0960127995965552</v>
+      </c>
+      <c r="M207">
+        <v>7.9206076130635257</v>
+      </c>
+      <c r="N207">
+        <v>1.2963225211855252</v>
+      </c>
+      <c r="O207">
+        <f t="shared" si="5"/>
+        <v>2.1915764447340442</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>4</v>
+      </c>
+      <c r="B208">
+        <v>2</v>
+      </c>
+      <c r="C208">
+        <v>0.1</v>
+      </c>
+      <c r="D208">
+        <v>4</v>
+      </c>
+      <c r="E208">
+        <v>2</v>
+      </c>
+      <c r="F208">
+        <v>8</v>
+      </c>
+      <c r="G208">
+        <v>0.2</v>
+      </c>
+      <c r="H208">
+        <v>3.3685879089138222</v>
+      </c>
+      <c r="I208">
+        <v>5.0552539770326019</v>
+      </c>
+      <c r="J208">
+        <v>1.0965897268571827</v>
+      </c>
+      <c r="K208">
+        <v>0.95387180738681743</v>
+      </c>
+      <c r="L208">
+        <v>1.0328262616093702</v>
+      </c>
+      <c r="M208">
+        <v>2.3209858743282603</v>
+      </c>
+      <c r="N208">
+        <v>1.3169612440854954</v>
+      </c>
+      <c r="O208">
+        <f t="shared" si="5"/>
+        <v>1.5007041863611728</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>4</v>
+      </c>
+      <c r="B209">
+        <v>1.7</v>
+      </c>
+      <c r="C209">
+        <v>0.1</v>
+      </c>
+      <c r="D209">
+        <v>4</v>
+      </c>
+      <c r="E209">
+        <v>2</v>
+      </c>
+      <c r="F209">
+        <v>8</v>
+      </c>
+      <c r="G209">
+        <v>0.2</v>
+      </c>
+      <c r="H209">
+        <v>2.3168413902654064</v>
+      </c>
+      <c r="I209">
+        <v>3.0388880741846349</v>
+      </c>
+      <c r="J209">
+        <v>1.0696393477629933</v>
+      </c>
+      <c r="K209">
+        <v>0.9484266178266858</v>
+      </c>
+      <c r="L209">
+        <v>0.99821844779569657</v>
+      </c>
+      <c r="M209">
+        <v>1.5825366782402994</v>
+      </c>
+      <c r="N209">
+        <v>1.291822837387725</v>
+      </c>
+      <c r="O209">
+        <f t="shared" si="5"/>
+        <v>1.3116513227677249</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>3</v>
+      </c>
+      <c r="B210">
+        <v>1.7</v>
+      </c>
+      <c r="C210">
+        <v>0.1</v>
+      </c>
+      <c r="D210">
+        <v>4</v>
+      </c>
+      <c r="E210">
+        <v>2</v>
+      </c>
+      <c r="F210">
+        <v>8</v>
+      </c>
+      <c r="G210">
+        <v>0.2</v>
+      </c>
+      <c r="H210">
+        <v>2.878475158207094</v>
+      </c>
+      <c r="I210">
+        <v>4.0952411190051858</v>
+      </c>
+      <c r="J210">
+        <v>1.0857342920914164</v>
+      </c>
+      <c r="K210">
+        <v>0.9521228327324196</v>
+      </c>
+      <c r="L210">
+        <v>1.0194372338963991</v>
+      </c>
+      <c r="M210">
+        <v>1.9187974847018869</v>
+      </c>
+      <c r="N210">
+        <v>1.3066121981646202</v>
+      </c>
+      <c r="O210">
+        <f t="shared" si="5"/>
+        <v>1.4227119894812552</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>2.8</v>
+      </c>
+      <c r="B211">
+        <v>1.7</v>
+      </c>
+      <c r="C211">
+        <v>0.1</v>
+      </c>
+      <c r="D211">
+        <v>4</v>
+      </c>
+      <c r="E211">
+        <v>2</v>
+      </c>
+      <c r="F211">
+        <v>8</v>
+      </c>
+      <c r="G211">
+        <v>0.2</v>
+      </c>
+      <c r="H211">
+        <v>3.0902934469768031</v>
+      </c>
+      <c r="I211">
+        <v>4.5193238119475811</v>
+      </c>
+      <c r="J211">
+        <v>1.0914643332771112</v>
+      </c>
+      <c r="K211">
+        <v>0.95282218560118348</v>
+      </c>
+      <c r="L211">
+        <v>1.0260941452002208</v>
+      </c>
+      <c r="M211">
+        <v>2.0448270517673586</v>
+      </c>
+      <c r="N211">
+        <v>1.3091941564357936</v>
+      </c>
+      <c r="O211">
+        <f t="shared" si="5"/>
+        <v>1.4624254587760206</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>2.6</v>
+      </c>
+      <c r="B212">
+        <v>1.7</v>
+      </c>
+      <c r="C212">
+        <v>0.1</v>
+      </c>
+      <c r="D212">
+        <v>4</v>
+      </c>
+      <c r="E212">
+        <v>2</v>
+      </c>
+      <c r="F212">
+        <v>8</v>
+      </c>
+      <c r="G212">
+        <v>0.2</v>
+      </c>
+      <c r="H212">
+        <v>3.385260775933955</v>
+      </c>
+      <c r="I212">
+        <v>5.1299901590027179</v>
+      </c>
+      <c r="J212">
+        <v>1.0991003186412407</v>
+      </c>
+      <c r="K212">
+        <v>0.95333050068090386</v>
+      </c>
+      <c r="L212">
+        <v>1.0342587470771112</v>
+      </c>
+      <c r="M212">
+        <v>2.2136308448312292</v>
+      </c>
+      <c r="N212">
+        <v>1.310852484793684</v>
+      </c>
+      <c r="O212">
+        <f t="shared" si="5"/>
+        <v>1.5153899503022517</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B213">
+        <v>1.7</v>
+      </c>
+      <c r="C213">
+        <v>0.1</v>
+      </c>
+      <c r="D213">
+        <v>4</v>
+      </c>
+      <c r="E213">
+        <v>2</v>
+      </c>
+      <c r="F213">
+        <v>8</v>
+      </c>
+      <c r="G213">
+        <v>0.2</v>
+      </c>
+      <c r="H213">
+        <v>4.5941887916418844</v>
+      </c>
+      <c r="I213">
+        <v>7.839230194975876</v>
+      </c>
+      <c r="J213">
+        <v>1.1265913666006739</v>
+      </c>
+      <c r="K213">
+        <v>0.95194835346982809</v>
+      </c>
+      <c r="L213">
+        <v>1.0577263982519962</v>
+      </c>
+      <c r="M213">
+        <v>2.8020916079638889</v>
+      </c>
+      <c r="N213">
+        <v>1.3052635232737833</v>
+      </c>
+      <c r="O213">
+        <f t="shared" si="5"/>
+        <v>1.7063361020856675</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>1.9</v>
+      </c>
+      <c r="B214">
+        <v>1.7</v>
+      </c>
+      <c r="C214">
+        <v>0.1</v>
+      </c>
+      <c r="D214">
+        <v>4</v>
+      </c>
+      <c r="E214">
+        <v>2</v>
+      </c>
+      <c r="F214">
+        <v>8</v>
+      </c>
+      <c r="G214">
+        <v>0.2</v>
+      </c>
+      <c r="H214">
+        <v>6.6255092629757222</v>
+      </c>
+      <c r="I214">
+        <v>13.116152350653971</v>
+      </c>
+      <c r="J214">
+        <v>1.164769365021874</v>
+      </c>
+      <c r="K214">
+        <v>0.94542210531927517</v>
+      </c>
+      <c r="L214">
+        <v>1.0814833843669378</v>
+      </c>
+      <c r="M214">
+        <v>3.6791744190495415</v>
+      </c>
+      <c r="N214">
+        <v>1.283122822153246</v>
+      </c>
+      <c r="O214">
+        <f t="shared" si="5"/>
+        <v>1.9796444061966489</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>1.8</v>
+      </c>
+      <c r="B215">
+        <v>1.7</v>
+      </c>
+      <c r="C215">
+        <v>0.1</v>
+      </c>
+      <c r="D215">
+        <v>4</v>
+      </c>
+      <c r="E215">
+        <v>2</v>
+      </c>
+      <c r="F215">
+        <v>8</v>
+      </c>
+      <c r="G215">
+        <v>0.2</v>
+      </c>
+      <c r="H215">
+        <v>7.4379716272115255</v>
+      </c>
+      <c r="I215">
+        <v>15.514486264947269</v>
+      </c>
+      <c r="J215">
+        <v>1.1787825290830192</v>
+      </c>
+      <c r="K215">
+        <v>0.94276777844935633</v>
+      </c>
+      <c r="L215">
+        <v>1.0898167081355914</v>
+      </c>
+      <c r="M215">
+        <v>4.1095186695104617</v>
+      </c>
+      <c r="N215">
+        <v>1.2729583638882953</v>
+      </c>
+      <c r="O215">
+        <f t="shared" si="5"/>
+        <v>2.0858490785563277</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>1.65</v>
+      </c>
+      <c r="B216">
+        <v>1.7</v>
+      </c>
+      <c r="C216">
+        <v>0.1</v>
+      </c>
+      <c r="D216">
+        <v>4</v>
+      </c>
+      <c r="E216">
+        <v>2</v>
+      </c>
+      <c r="F216">
+        <v>8</v>
+      </c>
+      <c r="G216">
+        <v>0.2</v>
+      </c>
+      <c r="H216">
+        <v>8.6736337215558432</v>
+      </c>
+      <c r="I216">
+        <v>19.506442275056418</v>
+      </c>
+      <c r="J216">
+        <v>1.1991981499866919</v>
+      </c>
+      <c r="K216">
+        <v>0.93922766421282433</v>
+      </c>
+      <c r="L216">
+        <v>1.1028784065041102</v>
+      </c>
+      <c r="M216">
+        <v>4.9948270565909612</v>
+      </c>
+      <c r="N216">
+        <v>1.2562954377617088</v>
+      </c>
+      <c r="O216">
+        <f t="shared" si="5"/>
+        <v>2.248935440584575</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>1.5980000000000001</v>
+      </c>
+      <c r="B217">
+        <v>1.7</v>
+      </c>
+      <c r="C217">
+        <v>0.1</v>
+      </c>
+      <c r="D217">
+        <v>4</v>
+      </c>
+      <c r="E217">
+        <v>2</v>
+      </c>
+      <c r="F217">
+        <v>8</v>
+      </c>
+      <c r="G217">
+        <v>0.2</v>
+      </c>
+      <c r="H217">
+        <v>9.1051678026627361</v>
+      </c>
+      <c r="I217">
+        <v>21.000065323958463</v>
+      </c>
+      <c r="J217">
+        <v>1.206076802734855</v>
+      </c>
+      <c r="K217">
+        <v>0.93815327416039684</v>
+      </c>
+      <c r="L217">
+        <v>1.1076275966200364</v>
+      </c>
+      <c r="M217">
+        <v>5.4069275554127563</v>
+      </c>
+      <c r="N217">
+        <v>1.2499803151859554</v>
+      </c>
+      <c r="O217">
+        <f t="shared" si="5"/>
+        <v>2.3063897095687964</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>0.7994</v>
+      </c>
+      <c r="B218">
+        <v>1.7</v>
+      </c>
+      <c r="C218">
+        <v>0.05</v>
+      </c>
+      <c r="D218">
+        <v>4</v>
+      </c>
+      <c r="E218">
+        <v>2</v>
+      </c>
+      <c r="F218">
+        <v>8</v>
+      </c>
+      <c r="G218">
+        <v>0.2</v>
+      </c>
+      <c r="H218">
+        <v>12.717330992320706</v>
+      </c>
+      <c r="I218">
+        <v>21.002061227290888</v>
+      </c>
+      <c r="J218">
+        <v>1.1003425448650146</v>
+      </c>
+      <c r="K218">
+        <v>0.92394242418103889</v>
+      </c>
+      <c r="L218">
+        <v>1.1277996692059085</v>
+      </c>
+      <c r="M218">
+        <v>11.516409439731079</v>
+      </c>
+      <c r="N218">
+        <v>1.1156885869537867</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>4</v>
+      </c>
+      <c r="B219">
+        <v>2.31908</v>
+      </c>
+      <c r="C219">
+        <v>0.1</v>
+      </c>
+      <c r="D219">
+        <v>4</v>
+      </c>
+      <c r="E219">
+        <v>2</v>
+      </c>
+      <c r="F219">
+        <v>8</v>
+      </c>
+      <c r="G219">
+        <v>0.2</v>
+      </c>
+      <c r="H219">
+        <v>9.5837675040473194</v>
+      </c>
+      <c r="I219">
+        <v>21.003559113677689</v>
+      </c>
+      <c r="J219">
+        <v>1.1921023668720252</v>
+      </c>
+      <c r="K219">
+        <v>0.94056831163594523</v>
+      </c>
+      <c r="L219">
+        <v>1.0960127995965552</v>
+      </c>
+      <c r="M219">
+        <v>7.9206076130635257</v>
+      </c>
+      <c r="N219">
+        <v>1.2963225211855252</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>1.5980000000000001</v>
+      </c>
+      <c r="B220">
+        <v>1.7</v>
+      </c>
+      <c r="C220">
+        <v>0.1</v>
+      </c>
+      <c r="D220">
+        <v>4</v>
+      </c>
+      <c r="E220">
+        <v>2</v>
+      </c>
+      <c r="F220">
+        <v>8</v>
+      </c>
+      <c r="G220">
+        <v>0.2</v>
+      </c>
+      <c r="H220">
+        <v>9.1051678026627361</v>
+      </c>
+      <c r="I220">
+        <v>21.000065323958463</v>
+      </c>
+      <c r="J220">
+        <v>1.206076802734855</v>
+      </c>
+      <c r="K220">
+        <v>0.93815327416039684</v>
+      </c>
+      <c r="L220">
+        <v>1.1076275966200364</v>
+      </c>
+      <c r="M220">
+        <v>5.4069275554127563</v>
+      </c>
+      <c r="N220">
+        <v>1.2499803151859554</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>2.5369000000000002</v>
+      </c>
+      <c r="B221">
+        <v>2.31908</v>
+      </c>
+      <c r="C221">
+        <v>0.05</v>
+      </c>
+      <c r="D221">
+        <v>4</v>
+      </c>
+      <c r="E221">
+        <v>2</v>
+      </c>
+      <c r="F221">
+        <v>8</v>
+      </c>
+      <c r="G221">
+        <v>0.2</v>
+      </c>
+      <c r="H221">
+        <v>12.800886313253566</v>
+      </c>
+      <c r="I221">
+        <v>20.997174381817441</v>
+      </c>
+      <c r="J221">
+        <v>1.1052673705354297</v>
+      </c>
+      <c r="K221">
+        <v>0.9314532564846405</v>
+      </c>
+      <c r="L221">
+        <v>1.0988818564344243</v>
+      </c>
+      <c r="M221">
+        <v>29.887426749751544</v>
+      </c>
+      <c r="N221">
+        <v>1.184923563159251</v>
       </c>
     </row>
   </sheetData>
@@ -48457,10 +50624,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X5"/>
+  <dimension ref="A1:AE20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="X20" sqref="X20"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AB38" sqref="AB38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48625,7 +50792,7 @@
         <v>1.2963225211857772</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O2:O5" si="0">I3/H3</f>
+        <f t="shared" ref="O3:O5" si="0">I3/H3</f>
         <v>2.1915764447352535</v>
       </c>
       <c r="R3">
@@ -48786,6 +50953,32 @@
       </c>
       <c r="X5">
         <v>0.317</v>
+      </c>
+    </row>
+    <row r="20" spans="24:31" x14ac:dyDescent="0.25">
+      <c r="X20" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y20">
+        <v>0.98740000000000006</v>
+      </c>
+      <c r="Z20">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="AA20">
+        <v>1.0134000000000001</v>
+      </c>
+      <c r="AB20">
+        <v>1.1874</v>
+      </c>
+      <c r="AC20">
+        <v>1.0134000000000001</v>
+      </c>
+      <c r="AD20">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="AE20">
+        <v>0.98740000000000006</v>
       </c>
     </row>
   </sheetData>
@@ -48799,29 +50992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:I8"/>
-      <pivotSelection pane="bottomRight" showHeader="1" extendable="1" axis="axisRow" start="1" max="5" activeRow="7" previousRow="7" click="1" r:id="rId1">
-        <pivotArea dataOnly="0" fieldPosition="0">
-          <references count="5">
-            <reference field="0" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1">
-              <x v="1"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="5" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="6" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotSelection>
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AlternativeVersions/2_withAsymmetricSteadyState/steady_state_numbers.xlsx
+++ b/AlternativeVersions/2_withAsymmetricSteadyState/steady_state_numbers.xlsx
@@ -28,8 +28,8 @@
   </definedNames>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="34" r:id="rId9"/>
-    <pivotCache cacheId="35" r:id="rId10"/>
+    <pivotCache cacheId="38" r:id="rId9"/>
+    <pivotCache cacheId="39" r:id="rId10"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -5086,7 +5086,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C137F86C-18A2-4ADE-B136-CA67840DF6E0}" type="CELLRANGE">
+                    <a:fld id="{32A5F332-9A03-4B02-9270-F210EA04D54D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5120,7 +5120,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F60E8990-5821-4177-B7B2-55BD3614457B}" type="CELLRANGE">
+                    <a:fld id="{0F5BC3DC-782E-40D1-85D2-13147B420E76}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5154,7 +5154,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EA6D0784-C691-48B1-A92E-4F4FD7653893}" type="CELLRANGE">
+                    <a:fld id="{0674882B-2DAA-4374-BD57-348FAC4360F1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5188,7 +5188,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{330F0E7D-33AC-4698-BC49-DFF38B21F6ED}" type="CELLRANGE">
+                    <a:fld id="{4FB72833-807F-4789-AFF1-4C9E5F8171AB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5222,7 +5222,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B6284126-345A-484F-9B92-B2254E75213A}" type="CELLRANGE">
+                    <a:fld id="{0EB26487-459B-45D5-AA6E-80EDE739522A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5256,7 +5256,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6CF02224-2173-42C9-819C-48D19C7B73CB}" type="CELLRANGE">
+                    <a:fld id="{F9C521EE-4AA8-42F5-AF41-08D66CE7CFD6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5290,7 +5290,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9056A9D6-A48F-48B7-85FA-3EF1EE194574}" type="CELLRANGE">
+                    <a:fld id="{1A320066-D6C1-4C2E-9564-88FD2F898E3E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5324,7 +5324,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C3E01666-DD0E-4082-9BF4-AD0B49EBB83C}" type="CELLRANGE">
+                    <a:fld id="{3B276013-0358-4CD7-9849-0346C7AACBDD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6409,7 +6409,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{327E7E9A-1504-4971-A1CB-6E0C844E97A7}" type="CELLRANGE">
+                    <a:fld id="{2A93FDC7-043B-4088-80A0-8F13192BDEF9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6443,7 +6443,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1111D03A-2222-49B4-8655-9437E9FE63B8}" type="CELLRANGE">
+                    <a:fld id="{CE0ED7B1-6991-4641-83D0-0BB551B1A052}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6477,7 +6477,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{92DFBFD7-E7F9-4803-80D1-1184F4DFB990}" type="CELLRANGE">
+                    <a:fld id="{BB835DD1-D071-4008-A375-D16721D52CED}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6511,7 +6511,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{681E26BE-C87C-4FAE-9FC5-37E74E5F0B18}" type="CELLRANGE">
+                    <a:fld id="{422CB622-DB15-4C08-BAB1-7019A7AF6EC8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6545,7 +6545,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1C4C40BD-C1B8-4B40-AEB3-E33D11F2FBAA}" type="CELLRANGE">
+                    <a:fld id="{72F7D986-9F48-4566-8BB7-E77564F25920}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6579,7 +6579,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ECD0F133-FC62-48D2-9F80-C248A48797AA}" type="CELLRANGE">
+                    <a:fld id="{AF59DB40-DC6F-47B2-B88F-FBE8BBF43FFB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6613,7 +6613,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9E5461C6-34A3-4C46-8641-00843E96415C}" type="CELLRANGE">
+                    <a:fld id="{41913492-DC2E-482F-A795-33E4A213E63C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6647,7 +6647,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CAA041B3-B55D-4811-BBC1-259644CD4F96}" type="CELLRANGE">
+                    <a:fld id="{A9C0E20D-5A31-40C8-9685-209152F8791D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7672,7 +7672,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0D55C415-6328-42CB-8C70-E21E478E7B16}" type="CELLRANGE">
+                    <a:fld id="{C0E368A0-D295-4E72-8800-5128F88E2619}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7706,7 +7706,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{14E8977B-4FC9-445A-A16F-BF41552F603E}" type="CELLRANGE">
+                    <a:fld id="{D0C53051-5190-4F20-B920-CC2240499D46}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7740,7 +7740,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{90C14A27-DBE4-45F3-BEAE-4980833EFA21}" type="CELLRANGE">
+                    <a:fld id="{7EDFAE47-77E9-4AB5-82CA-5B58FDDB140A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7774,7 +7774,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{82F932CF-4738-475B-86D6-D7BD8A61CDB1}" type="CELLRANGE">
+                    <a:fld id="{5FA436BC-B945-4FF2-9325-C9215AF8396E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7808,7 +7808,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{688B686B-4445-44FF-A8FF-AADB507E3C4E}" type="CELLRANGE">
+                    <a:fld id="{01E44E54-E280-45C2-AFB3-445D41087F3B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7842,7 +7842,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{244F3688-EA38-493E-9535-83B3C3407167}" type="CELLRANGE">
+                    <a:fld id="{CC397E9C-0B7C-406D-8438-C4E98FEDBF39}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7876,7 +7876,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{246A7F94-F743-4FED-9B4D-73A0724A79CF}" type="CELLRANGE">
+                    <a:fld id="{28845C9D-1809-4605-BBFE-81088A1C18DA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7910,7 +7910,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{77ABE708-2B5B-4ECA-8A79-E661D9732B98}" type="CELLRANGE">
+                    <a:fld id="{570A2C66-E81F-4F4E-B52A-2A1EE538D38D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8932,7 +8932,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0940F0B6-2626-43DA-9AFF-B8A0E4149ACA}" type="CELLRANGE">
+                    <a:fld id="{D3C228C9-5068-45AB-8682-01B513515587}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8966,7 +8966,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A338786F-5722-4ACF-9AE7-E4B60F72421B}" type="CELLRANGE">
+                    <a:fld id="{A47B8040-DBFF-4346-8DAC-7163B345B5BF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9000,7 +9000,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C737D9C3-930F-453B-8B0E-CAA7D6D72CBB}" type="CELLRANGE">
+                    <a:fld id="{D050F1E6-592D-4DBE-B48D-76CAF6662226}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9034,7 +9034,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{03367F25-5C97-4124-8676-82FA66940898}" type="CELLRANGE">
+                    <a:fld id="{41F88102-43B5-4D15-8CBF-F7E597661AD2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9068,7 +9068,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4EB43891-D419-42BF-A5DB-FD674B501851}" type="CELLRANGE">
+                    <a:fld id="{C6826181-60CA-4422-94E4-9F06BC026868}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9102,7 +9102,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A9F23978-D65E-4561-B21D-E9CE8B053539}" type="CELLRANGE">
+                    <a:fld id="{0F4FECA9-DE37-4B20-A301-77EC51E60E3A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9136,7 +9136,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E889B86A-B8C4-4D5F-A3B4-9FA454558D6C}" type="CELLRANGE">
+                    <a:fld id="{77419FEA-1126-4674-9E43-27809C97B467}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9170,7 +9170,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{141B83B5-1E23-47AA-94E9-D18D2358AC39}" type="CELLRANGE">
+                    <a:fld id="{9EE55965-636C-45BC-9297-302DA458330E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -41573,7 +41573,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="38" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A6:I11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="15">
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
@@ -41750,7 +41750,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="38" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A6:I11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="15">
     <pivotField axis="axisRow" subtotalTop="0" showAll="0">
@@ -41927,7 +41927,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="38" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:I6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="15">
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
@@ -42079,7 +42079,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="15">
     <pivotField axis="axisRow" subtotalTop="0" showAll="0">
@@ -42576,11 +42576,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P230"/>
+  <dimension ref="A1:P240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:N230"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:N240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53575,6 +53575,446 @@
         <v>11.516409439731079</v>
       </c>
       <c r="N230">
+        <v>1.1156885869537867</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>0.7994</v>
+      </c>
+      <c r="B231">
+        <v>1.7</v>
+      </c>
+      <c r="C231">
+        <v>0.05</v>
+      </c>
+      <c r="D231">
+        <v>4</v>
+      </c>
+      <c r="E231">
+        <v>2</v>
+      </c>
+      <c r="F231">
+        <v>8</v>
+      </c>
+      <c r="G231">
+        <v>0.2</v>
+      </c>
+      <c r="H231">
+        <v>12.717330992320706</v>
+      </c>
+      <c r="I231">
+        <v>21.002061227290888</v>
+      </c>
+      <c r="J231">
+        <v>1.1003425448650146</v>
+      </c>
+      <c r="K231">
+        <v>0.92394242418103889</v>
+      </c>
+      <c r="L231">
+        <v>1.1277996692059085</v>
+      </c>
+      <c r="M231">
+        <v>11.516409439731079</v>
+      </c>
+      <c r="N231">
+        <v>1.1156885869537867</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>0.7994</v>
+      </c>
+      <c r="B232">
+        <v>1.7</v>
+      </c>
+      <c r="C232">
+        <v>0.05</v>
+      </c>
+      <c r="D232">
+        <v>4</v>
+      </c>
+      <c r="E232">
+        <v>2</v>
+      </c>
+      <c r="F232">
+        <v>8</v>
+      </c>
+      <c r="G232">
+        <v>0.2</v>
+      </c>
+      <c r="H232">
+        <v>12.717330992320706</v>
+      </c>
+      <c r="I232">
+        <v>21.002061227290888</v>
+      </c>
+      <c r="J232">
+        <v>1.1003425448650146</v>
+      </c>
+      <c r="K232">
+        <v>0.92394242418103889</v>
+      </c>
+      <c r="L232">
+        <v>1.1277996692059085</v>
+      </c>
+      <c r="M232">
+        <v>11.516409439731079</v>
+      </c>
+      <c r="N232">
+        <v>1.1156885869537867</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>0.7994</v>
+      </c>
+      <c r="B233">
+        <v>1.7</v>
+      </c>
+      <c r="C233">
+        <v>0.05</v>
+      </c>
+      <c r="D233">
+        <v>4</v>
+      </c>
+      <c r="E233">
+        <v>2</v>
+      </c>
+      <c r="F233">
+        <v>8</v>
+      </c>
+      <c r="G233">
+        <v>0.2</v>
+      </c>
+      <c r="H233">
+        <v>12.717330992320706</v>
+      </c>
+      <c r="I233">
+        <v>21.002061227290888</v>
+      </c>
+      <c r="J233">
+        <v>1.1003425448650146</v>
+      </c>
+      <c r="K233">
+        <v>0.92394242418103889</v>
+      </c>
+      <c r="L233">
+        <v>1.1277996692059085</v>
+      </c>
+      <c r="M233">
+        <v>11.516409439731079</v>
+      </c>
+      <c r="N233">
+        <v>1.1156885869537867</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>0.7994</v>
+      </c>
+      <c r="B234">
+        <v>1.7</v>
+      </c>
+      <c r="C234">
+        <v>0.05</v>
+      </c>
+      <c r="D234">
+        <v>4</v>
+      </c>
+      <c r="E234">
+        <v>2</v>
+      </c>
+      <c r="F234">
+        <v>8</v>
+      </c>
+      <c r="G234">
+        <v>0.2</v>
+      </c>
+      <c r="H234">
+        <v>12.717330992320706</v>
+      </c>
+      <c r="I234">
+        <v>21.002061227290888</v>
+      </c>
+      <c r="J234">
+        <v>1.1003425448650146</v>
+      </c>
+      <c r="K234">
+        <v>0.92394242418103889</v>
+      </c>
+      <c r="L234">
+        <v>1.1277996692059085</v>
+      </c>
+      <c r="M234">
+        <v>11.516409439731079</v>
+      </c>
+      <c r="N234">
+        <v>1.1156885869537867</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>0.7994</v>
+      </c>
+      <c r="B235">
+        <v>1.7</v>
+      </c>
+      <c r="C235">
+        <v>0.05</v>
+      </c>
+      <c r="D235">
+        <v>4</v>
+      </c>
+      <c r="E235">
+        <v>2</v>
+      </c>
+      <c r="F235">
+        <v>8</v>
+      </c>
+      <c r="G235">
+        <v>0.2</v>
+      </c>
+      <c r="H235">
+        <v>12.717330992320706</v>
+      </c>
+      <c r="I235">
+        <v>21.002061227290888</v>
+      </c>
+      <c r="J235">
+        <v>1.1003425448650146</v>
+      </c>
+      <c r="K235">
+        <v>0.92394242418103889</v>
+      </c>
+      <c r="L235">
+        <v>1.1277996692059085</v>
+      </c>
+      <c r="M235">
+        <v>11.516409439731079</v>
+      </c>
+      <c r="N235">
+        <v>1.1156885869537867</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>0.7994</v>
+      </c>
+      <c r="B236">
+        <v>1.7</v>
+      </c>
+      <c r="C236">
+        <v>0.05</v>
+      </c>
+      <c r="D236">
+        <v>4</v>
+      </c>
+      <c r="E236">
+        <v>2</v>
+      </c>
+      <c r="F236">
+        <v>8</v>
+      </c>
+      <c r="G236">
+        <v>0.2</v>
+      </c>
+      <c r="H236">
+        <v>12.717330992320706</v>
+      </c>
+      <c r="I236">
+        <v>21.002061227290888</v>
+      </c>
+      <c r="J236">
+        <v>1.1003425448650146</v>
+      </c>
+      <c r="K236">
+        <v>0.92394242418103889</v>
+      </c>
+      <c r="L236">
+        <v>1.1277996692059085</v>
+      </c>
+      <c r="M236">
+        <v>11.516409439731079</v>
+      </c>
+      <c r="N236">
+        <v>1.1156885869537867</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>0.7994</v>
+      </c>
+      <c r="B237">
+        <v>1.7</v>
+      </c>
+      <c r="C237">
+        <v>0.05</v>
+      </c>
+      <c r="D237">
+        <v>4</v>
+      </c>
+      <c r="E237">
+        <v>2</v>
+      </c>
+      <c r="F237">
+        <v>8</v>
+      </c>
+      <c r="G237">
+        <v>0.2</v>
+      </c>
+      <c r="H237">
+        <v>12.717330992320706</v>
+      </c>
+      <c r="I237">
+        <v>21.002061227290888</v>
+      </c>
+      <c r="J237">
+        <v>1.1003425448650146</v>
+      </c>
+      <c r="K237">
+        <v>0.92394242418103889</v>
+      </c>
+      <c r="L237">
+        <v>1.1277996692059085</v>
+      </c>
+      <c r="M237">
+        <v>11.516409439731079</v>
+      </c>
+      <c r="N237">
+        <v>1.1156885869537867</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>0.7994</v>
+      </c>
+      <c r="B238">
+        <v>1.7</v>
+      </c>
+      <c r="C238">
+        <v>0.05</v>
+      </c>
+      <c r="D238">
+        <v>4</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="F238">
+        <v>8</v>
+      </c>
+      <c r="G238">
+        <v>0.2</v>
+      </c>
+      <c r="H238">
+        <v>12.717330992320706</v>
+      </c>
+      <c r="I238">
+        <v>21.002061227290888</v>
+      </c>
+      <c r="J238">
+        <v>1.1003425448650146</v>
+      </c>
+      <c r="K238">
+        <v>0.92394242418103889</v>
+      </c>
+      <c r="L238">
+        <v>1.1277996692059085</v>
+      </c>
+      <c r="M238">
+        <v>11.516409439731079</v>
+      </c>
+      <c r="N238">
+        <v>1.1156885869537867</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>0.7994</v>
+      </c>
+      <c r="B239">
+        <v>1.7</v>
+      </c>
+      <c r="C239">
+        <v>0.05</v>
+      </c>
+      <c r="D239">
+        <v>4</v>
+      </c>
+      <c r="E239">
+        <v>4</v>
+      </c>
+      <c r="F239">
+        <v>8</v>
+      </c>
+      <c r="G239">
+        <v>0.2</v>
+      </c>
+      <c r="H239">
+        <v>12.717330992320706</v>
+      </c>
+      <c r="I239">
+        <v>21.002061227290888</v>
+      </c>
+      <c r="J239">
+        <v>1.1003425448650146</v>
+      </c>
+      <c r="K239">
+        <v>0.92394242418103889</v>
+      </c>
+      <c r="L239">
+        <v>1.1277996692059085</v>
+      </c>
+      <c r="M239">
+        <v>11.516409439731079</v>
+      </c>
+      <c r="N239">
+        <v>1.1156885869537867</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>0.7994</v>
+      </c>
+      <c r="B240">
+        <v>1.7</v>
+      </c>
+      <c r="C240">
+        <v>0.05</v>
+      </c>
+      <c r="D240">
+        <v>4</v>
+      </c>
+      <c r="E240">
+        <v>4</v>
+      </c>
+      <c r="F240">
+        <v>8</v>
+      </c>
+      <c r="G240">
+        <v>0.2</v>
+      </c>
+      <c r="H240">
+        <v>12.717330992320706</v>
+      </c>
+      <c r="I240">
+        <v>21.002061227290888</v>
+      </c>
+      <c r="J240">
+        <v>1.1003425448650146</v>
+      </c>
+      <c r="K240">
+        <v>0.92394242418103889</v>
+      </c>
+      <c r="L240">
+        <v>1.1277996692059085</v>
+      </c>
+      <c r="M240">
+        <v>11.516409439731079</v>
+      </c>
+      <c r="N240">
         <v>1.1156885869537867</v>
       </c>
     </row>
